--- a/DH5 Marco/EDH Epigrafia.xlsx
+++ b/DH5 Marco/EDH Epigrafia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C774C14B-E788-498C-A465-2B231CF88F13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5176B419-F6A0-455E-B97B-11ADEA31A846}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{E8BDB056-37E7-4098-B013-B938BD39BF42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="9" xr2:uid="{E8BDB056-37E7-4098-B013-B938BD39BF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1 (10)" sheetId="11" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="275">
   <si>
     <t>Ref URL</t>
   </si>
@@ -150,9 +150,6 @@
     <t>latin</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://edh-www.adw.uni-heidelberg.de/edh/inschrift/HD004420</t>
-  </si>
-  <si>
     <t>HD004420</t>
   </si>
   <si>
@@ -231,18 +228,6 @@
     <t>49.976292815,8.3062491401</t>
   </si>
   <si>
-    <t>https://edh-www.adw.uni-heidelberg.de/digilib/Scaler/IIIF/f017175.tif</t>
-  </si>
-  <si>
-    <t>https://edh-www.adw.uni-heidelberg.de/digilib/Scaler/IIIF/f017177.tif</t>
-  </si>
-  <si>
-    <t>https://edh-www.adw.uni-heidelberg.de/digilib/Scaler/IIIF/f017178.tif</t>
-  </si>
-  <si>
-    <t>https://edh-www.adw.uni-heidelberg.de/digilib/Scaler/IIIF/f017176.tif</t>
-  </si>
-  <si>
     <t xml:space="preserve"> https://edh-www.adw.uni-heidelberg.de/edh/inschrift/HD004432</t>
   </si>
   <si>
@@ -309,12 +294,6 @@
     <t>https://edh-www.adw.uni-heidelberg.de/digilib/Scaler/IIIF/f007390.tif/full/full/0/default.png</t>
   </si>
   <si>
-    <t>https://edh-www.adw.uni-heidelberg.de/digilib/Scaler/IIIF/f035698.tif/full/full/0/default.png</t>
-  </si>
-  <si>
-    <t>https://edh-www.adw.uni-heidelberg.de/digilib/Scaler/IIIF/f035699.tif/full/full/0/default.png</t>
-  </si>
-  <si>
     <t>https://edh-www.adw.uni-heidelberg.de/edh/inschrift/HD004441</t>
   </si>
   <si>
@@ -387,9 +366,6 @@
     <t>48.37451,10.897359999</t>
   </si>
   <si>
-    <t>https://edh-www.adw.uni-heidelberg.de/digilib/Scaler/IIIF/f035406.tif/full/full/0/default.png</t>
-  </si>
-  <si>
     <t>https://edh-www.adw.uni-heidelberg.de/edh/inschrift/HD004447</t>
   </si>
   <si>
@@ -498,7 +474,397 @@
     <t>http://edh-www.adw.uni-heidelberg.de/edh/foto/F038201</t>
   </si>
   <si>
-    <t>Images did not load.</t>
+    <t xml:space="preserve">https://edh-www.adw.uni-heidelberg.de/edh/inschrift/HD004465 </t>
+  </si>
+  <si>
+    <t>HD004465</t>
+  </si>
+  <si>
+    <t>calcareous tuff: rocks - clastic sediments</t>
+  </si>
+  <si>
+    <t>71 AD – 116 AD</t>
+  </si>
+  <si>
+    <t>Nimphis(!) e&lt;t&gt; A[p]</t>
+  </si>
+  <si>
+    <t>ollini sacr(um)</t>
+  </si>
+  <si>
+    <t>[L(ucius)?] Iunius Ela[--]</t>
+  </si>
+  <si>
+    <t>us |(centurio) coh(ortis) I ci[v(ium)]</t>
+  </si>
+  <si>
+    <t>Romanor[u]</t>
+  </si>
+  <si>
+    <t>m v(otum) s(olvit) l(ibens) m(erito)</t>
+  </si>
+  <si>
+    <t>NIMPHIS EI A[ ]</t>
+  </si>
+  <si>
+    <t>OLLINI SACR</t>
+  </si>
+  <si>
+    <t>[ ] IVNIVS ELA[ ]</t>
+  </si>
+  <si>
+    <t>VS | COH I CI[ ]</t>
+  </si>
+  <si>
+    <t>ROMANOR[ ]</t>
+  </si>
+  <si>
+    <t>M V S L M</t>
+  </si>
+  <si>
+    <t>50.454282791,7.2986263667</t>
+  </si>
+  <si>
+    <t>https://edh-www.adw.uni-heidelberg.de/edh/inschrift/HD004477</t>
+  </si>
+  <si>
+    <t>70 AD – 92 AD</t>
+  </si>
+  <si>
+    <t>HD004477</t>
+  </si>
+  <si>
+    <t>C(aius) Titius C(ai) f(ilius)</t>
+  </si>
+  <si>
+    <t>Maecia Mes</t>
+  </si>
+  <si>
+    <t>trius Pelago</t>
+  </si>
+  <si>
+    <t>nia mil(es) leg(ionis)</t>
+  </si>
+  <si>
+    <t>XIIII g(eminae) M(artiae) v(ictricis) an(norum)</t>
+  </si>
+  <si>
+    <t>XXX stip(endiorum) XII</t>
+  </si>
+  <si>
+    <t>h(ic) i(ntus?) s(itus) e(st) h(eres) f(aciendum) c(uravit)</t>
+  </si>
+  <si>
+    <t>C TITIVS C F</t>
+  </si>
+  <si>
+    <t>MAECIA MES</t>
+  </si>
+  <si>
+    <t>TRIVS PELAGO</t>
+  </si>
+  <si>
+    <t>NIA MIL LEG</t>
+  </si>
+  <si>
+    <t>XIIII G M V AN</t>
+  </si>
+  <si>
+    <t>XXX STIP XII</t>
+  </si>
+  <si>
+    <t>H I S E H F C</t>
+  </si>
+  <si>
+    <t>49.989012,8.2568263000</t>
+  </si>
+  <si>
+    <t>EDH Geo-ID: 8945</t>
+  </si>
+  <si>
+    <t>Pleiades ID: 109169</t>
+  </si>
+  <si>
+    <t>https://edh-www.adw.uni-heidelberg.de/edh/inschrift/HD004490</t>
+  </si>
+  <si>
+    <t>HD004490</t>
+  </si>
+  <si>
+    <t>EDH Geo-ID: 8915</t>
+  </si>
+  <si>
+    <t>13 BC – 43 AD</t>
+  </si>
+  <si>
+    <t>C(aius) Tallius</t>
+  </si>
+  <si>
+    <t>C(ai) Fab(ia) Pris/cus vetera</t>
+  </si>
+  <si>
+    <t>nus ex leg(ione) XIIII</t>
+  </si>
+  <si>
+    <t>gem(ina) anno(rum)</t>
+  </si>
+  <si>
+    <t>XLIIX stip(endiorum) XXVII</t>
+  </si>
+  <si>
+    <t>vexsillo(!) P(ubli) Atili</t>
+  </si>
+  <si>
+    <t>Crispi h(ic) s(itus) e(st)</t>
+  </si>
+  <si>
+    <t>frater pro pi/etate pos(u)it</t>
+  </si>
+  <si>
+    <t>C TALLIVS</t>
+  </si>
+  <si>
+    <t>C FAB PRIS</t>
+  </si>
+  <si>
+    <t>CVS VETERA</t>
+  </si>
+  <si>
+    <t>NVS EX LEG XIIII</t>
+  </si>
+  <si>
+    <t>GEM ANNO</t>
+  </si>
+  <si>
+    <t>XLIIX STIP XXVII</t>
+  </si>
+  <si>
+    <t>VEXSILLO P ATILI</t>
+  </si>
+  <si>
+    <t>CRISPI H S E</t>
+  </si>
+  <si>
+    <t>FRATER PRO PI</t>
+  </si>
+  <si>
+    <t>ETATE POSIT</t>
+  </si>
+  <si>
+    <t>49.994872899,8.2383862000</t>
+  </si>
+  <si>
+    <t>https://edh-www.adw.uni-heidelberg.de/digilib/Scaler/IIIF/f017166.tif/full/full/0/default.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In h(onorem) d(omus) d(ivinae) I(ovi) O(ptimo) M(aximo) </t>
+  </si>
+  <si>
+    <t>Iunon[i] Regin(a)e</t>
+  </si>
+  <si>
+    <t>Minerv(a)e Bono</t>
+  </si>
+  <si>
+    <t>ci deo patrio</t>
+  </si>
+  <si>
+    <t>Even[tui Ge]nio lo</t>
+  </si>
+  <si>
+    <t>Marti Conservatori</t>
+  </si>
+  <si>
+    <t>d(is) d(eabusque) om(nibus) C(aius) Securi</t>
+  </si>
+  <si>
+    <t>us Domit[ia]nus m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">il(es) leg(ionis) VIII [Aug(ustae)] p(iae) f(idelis) c(onstantis) C(ommodae) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antonin[ianae b(ene)f(iciarius)] </t>
+  </si>
+  <si>
+    <t>[co(n)]s(ularis) pro [se et suis]</t>
+  </si>
+  <si>
+    <t>[ter]tia stat(ione) [v(otum) s(olvit) l(ibens) m(erito) Id(ibus)]</t>
+  </si>
+  <si>
+    <t>Iul(iis) duob(us) A[spris co(n)s(ulibus)]</t>
+  </si>
+  <si>
+    <t>IN H D D I O M</t>
+  </si>
+  <si>
+    <t>IVNON[ ] REGINE</t>
+  </si>
+  <si>
+    <t>MINERVE BONO</t>
+  </si>
+  <si>
+    <t>EVEN[ ]NIO LO</t>
+  </si>
+  <si>
+    <t>CI DEO PATRIO</t>
+  </si>
+  <si>
+    <t>MARTI CONSERVATORI</t>
+  </si>
+  <si>
+    <t>D D OM C SECVRI</t>
+  </si>
+  <si>
+    <t>VS DOMIT[ ]NVS M</t>
+  </si>
+  <si>
+    <t>IL LEG VIII [ ] P F C C</t>
+  </si>
+  <si>
+    <t>ANTONIN[ ]</t>
+  </si>
+  <si>
+    <t>[ ]S PRO [ ]</t>
+  </si>
+  <si>
+    <t>[ ]TIA STAT [ ]</t>
+  </si>
+  <si>
+    <t>IVL DVOB A[ ]</t>
+  </si>
+  <si>
+    <t>15. July 212 AD</t>
+  </si>
+  <si>
+    <t>https://edh-www.adw.uni-heidelberg.de/edh/inschrift/HD004519</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HD004519</t>
+  </si>
+  <si>
+    <t>EDH Geo-ID: 8810</t>
+  </si>
+  <si>
+    <t>sandstone: rocks - clastic sediments</t>
+  </si>
+  <si>
+    <t>https://edh-www.adw.uni-heidelberg.de/fotos/F034888.JPG</t>
+  </si>
+  <si>
+    <t>https://edh-www.adw.uni-heidelberg.de/edh/inschrift/HD004558</t>
+  </si>
+  <si>
+    <t>HD004558</t>
+  </si>
+  <si>
+    <t>EDH Geo-ID: 8943</t>
+  </si>
+  <si>
+    <t>39 AD – 70 AD</t>
+  </si>
+  <si>
+    <t>M(arcus) Dippon</t>
+  </si>
+  <si>
+    <t>ius M(arci) f(ilius) Clau(dia)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icco Iu(v)avo </t>
+  </si>
+  <si>
+    <t>mil(es) leg(ionis) IIII</t>
+  </si>
+  <si>
+    <t>Mac(edonicae) an(norum) XXVI</t>
+  </si>
+  <si>
+    <t>[st]ip(endiorum) VI</t>
+  </si>
+  <si>
+    <t>[h(ic) s(itus) e(st) h(eres) f(aciendum)] c(uravit)</t>
+  </si>
+  <si>
+    <t>M DIPPON</t>
+  </si>
+  <si>
+    <t>IVS M F CLAV</t>
+  </si>
+  <si>
+    <t>ICCO IVAVO</t>
+  </si>
+  <si>
+    <t>MIL LEG IIII</t>
+  </si>
+  <si>
+    <t>MAC AN XXVI</t>
+  </si>
+  <si>
+    <t>[ ]IP VI</t>
+  </si>
+  <si>
+    <t>[ ] C</t>
+  </si>
+  <si>
+    <t>49.988819700,8.2562265000</t>
+  </si>
+  <si>
+    <t>https://edh-www.adw.uni-heidelberg.de/fotos/F017137.JPG</t>
+  </si>
+  <si>
+    <t>https://edh-www.adw.uni-heidelberg.de/fotos/F017136.JPG</t>
+  </si>
+  <si>
+    <t>EDH Geo-ID: 27528</t>
+  </si>
+  <si>
+    <t>Pleiades ID: 128376</t>
+  </si>
+  <si>
+    <t>https://edh-www.adw.uni-heidelberg.de/edh/inschrift/HD004420</t>
+  </si>
+  <si>
+    <t>EDH Geo-ID: 8958</t>
+  </si>
+  <si>
+    <t>https://edh-www.adw.uni-heidelberg.de/fotos/F017175.JPG</t>
+  </si>
+  <si>
+    <t>https://edh-www.adw.uni-heidelberg.de/fotos/F017178.JPG</t>
+  </si>
+  <si>
+    <t>https://edh-www.adw.uni-heidelberg.de/fotos/F017176.JPG</t>
+  </si>
+  <si>
+    <t>EDH Geo-ID: 18641</t>
+  </si>
+  <si>
+    <t>Pleiades ID: 118986</t>
+  </si>
+  <si>
+    <t>EDH Geo-ID: 18697</t>
+  </si>
+  <si>
+    <t>Pleiades ID: 118580</t>
+  </si>
+  <si>
+    <t>https://edh-www.adw.uni-heidelberg.de/fotos/F035406.JPG</t>
+  </si>
+  <si>
+    <t>EDH Geo-ID: 7836</t>
+  </si>
+  <si>
+    <t>EDH Geo-ID: 8070</t>
+  </si>
+  <si>
+    <t>https://edh-www.adw.uni-heidelberg.de/fotos/F038202.JPG</t>
+  </si>
+  <si>
+    <t>https://edh-www.adw.uni-heidelberg.de/fotos/F017133.JPG</t>
+  </si>
+  <si>
+    <t>49.430908424,9.4272913822</t>
   </si>
 </sst>
 </file>
@@ -639,7 +1005,322 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3116580</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>4068166</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Immagine 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14D181FD-6159-4C48-85A8-802AC879A488}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2133600" y="1729740"/>
+          <a:ext cx="2895600" cy="3984346"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2827020</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>4069080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Immagine 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A51D6A5E-3F8A-4838-9F0D-0343FB8884CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6035040" y="1750646"/>
+          <a:ext cx="2651760" cy="3964354"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>243417</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>232833</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3460750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>4862539</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Immagine 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4DCD113-CA2B-49EC-85CB-E0EA28B97D90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2159000" y="1852083"/>
+          <a:ext cx="3217333" cy="4629706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>306917</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>211666</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2645833</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>4809975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Immagine 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74E4B39A-078D-450F-9D96-9E901E8A224F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6646334" y="1830916"/>
+          <a:ext cx="2338916" cy="4598309"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>112923</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>783166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3992838</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>3484879</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Immagine 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D3B2AF9-18A3-40C9-ACA7-EED881A5FF9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10685673" y="2402416"/>
+          <a:ext cx="3879915" cy="2701713"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -705,7 +1386,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -771,7 +1452,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1060,6 +1741,270 @@
         <a:xfrm>
           <a:off x="24003000" y="1645920"/>
           <a:ext cx="5364480" cy="3810000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2236863</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>3147060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Immagine 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73EB4945-CF7A-4863-AC86-54F704F50C96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2026920" y="1744980"/>
+          <a:ext cx="2122563" cy="3048000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2491740</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>4008</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Immagine 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FEE1B9D-6BF1-4474-86AC-455599F9908A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1988820" y="1699260"/>
+          <a:ext cx="2415540" cy="3570168"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>91441</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2057677</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>4122420</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Immagine 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{446DF0DD-D2D4-4737-863B-5BE6324D357E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2004061" y="1737360"/>
+          <a:ext cx="1966236" cy="4030980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3093720</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>4473458</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Immagine 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CF48E73-6595-440D-B3D8-CC7DBCAB15B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2011680" y="1699260"/>
+          <a:ext cx="2994660" cy="4420118"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1378,19 +2323,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85CCAAAA-A56F-4320-9458-F320648D4212}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.88671875" customWidth="1"/>
     <col min="2" max="2" width="78.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1398,7 +2344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1406,12 +2352,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1419,7 +2371,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1427,7 +2379,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1435,7 +2387,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1443,7 +2395,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1451,7 +2403,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1459,8 +2411,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="301.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="301.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1468,22 +2420,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1491,7 +2443,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -1565,85 +2517,194 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECDB960-96D9-4640-A6D4-C21D591B65E8}">
-  <dimension ref="A1:A38"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScale="41" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.88671875" customWidth="1"/>
+    <col min="2" max="2" width="57.5546875" customWidth="1"/>
+    <col min="3" max="3" width="53.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="329.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="B15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="B18" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B25" t="s">
+        <v>255</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{284E15FC-1218-404C-AB25-8E3AF784A549}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{0E5AA5CD-7005-4009-8591-1E193610B934}"/>
+    <hyperlink ref="C9" r:id="rId3" xr:uid="{18B2E165-F856-48F7-90DD-2784A9554DCC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -1651,8 +2712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ECB89E8-BA9D-483C-838B-2EFCC8497F16}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView zoomScale="72" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="51" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1669,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1677,13 +2738,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1714,7 +2781,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1730,44 +2797,38 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>262</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>263</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="232.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>152</v>
-      </c>
-    </row>
+        <v>264</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="386.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1775,37 +2836,37 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -1813,67 +2874,67 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -1881,19 +2942,19 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="https://edh-www.adw.uni-heidelberg.de/edh/inschrift/HD004405" xr:uid="{070DDB93-9730-4EB9-A727-18A5796667F1}"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{070DDB93-9730-4EB9-A727-18A5796667F1}"/>
     <hyperlink ref="B9" r:id="rId2" xr:uid="{58F7C056-CFCE-4A79-A573-8848C9F7EC04}"/>
     <hyperlink ref="C9" r:id="rId3" xr:uid="{D511FDDE-2037-43CD-BE17-4A79FBC0ABC8}"/>
-    <hyperlink ref="D9" r:id="rId4" xr:uid="{A16A8838-CA43-461C-9A59-E9CE5880AC8B}"/>
-    <hyperlink ref="E9" r:id="rId5" xr:uid="{926EB23A-6786-490B-A6F0-C54B5E83CA55}"/>
+    <hyperlink ref="D9" r:id="rId4" xr:uid="{E073B4AE-5C41-4A9E-A1B6-F44E084AF571}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -1901,8 +2962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C97029B-49CE-4A45-B941-B17725B4EC4D}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="74" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="74" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1918,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1926,20 +2987,26 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1955,7 +3022,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1963,7 +3030,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1971,7 +3038,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1979,14 +3046,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>90</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="409.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1994,22 +3057,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -2017,17 +3080,17 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -2035,37 +3098,37 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -2073,57 +3136,62 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1" xr:uid="{96D0928A-C2CB-4B9F-9E17-7BE017BA7901}"/>
-    <hyperlink ref="C9" r:id="rId2" xr:uid="{261214A2-E179-45D0-A314-C6A7AF5B8D7C}"/>
-    <hyperlink ref="D9" r:id="rId3" xr:uid="{481AD869-400D-4AA3-B04F-ABE8FF9898B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C75269-9B90-49E2-97C5-0654A19B6363}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.88671875" customWidth="1"/>
     <col min="2" max="2" width="82.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2131,7 +3199,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2139,23 +3207,23 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2163,69 +3231,69 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="400.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="400.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -2233,52 +3301,52 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -2286,7 +3354,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2304,8 +3372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D494DC2-0725-405E-B1EE-7F419BD7D60D}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="39" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="66" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2323,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2331,20 +3399,23 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2352,20 +3423,23 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -2373,7 +3447,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -2381,19 +3455,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="336" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2402,22 +3476,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -2425,42 +3499,42 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -2468,62 +3542,62 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -2531,7 +3605,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2551,336 +3625,820 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E2E022-9415-4F20-A080-61D246024ED3}">
-  <dimension ref="A1:A38"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView zoomScale="66" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.88671875" customWidth="1"/>
+    <col min="2" max="2" width="63.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="257.39999999999998" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="B15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="B17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B23" t="s">
+        <v>160</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{A783BB16-2D1C-499D-BF97-30C20DD195DE}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{4D2128D6-AF75-42EB-86F5-D3375EEA78A0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF3F9E9-20AC-4212-B485-DB4CC58260D9}">
-  <dimension ref="A1:A38"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView zoomScale="59" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.88671875" customWidth="1"/>
+    <col min="2" max="2" width="52.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="285" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="B15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="B18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B25" t="s">
+        <v>178</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{5EB601E4-4009-4EBD-848C-B98712EFEC80}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{44D267E3-C8A9-48AD-BC82-E2B74F33490F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62776C00-45BA-46DF-9A70-0F1B8DCCB9A6}">
-  <dimension ref="A1:A38"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A10" zoomScale="62" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.88671875" customWidth="1"/>
+    <col min="2" max="2" width="78" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="342.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="B15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="B19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B29" t="s">
+        <v>203</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{5D65A046-7B8B-4139-8792-78AE632CAEAD}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{B1295DD5-E507-4E65-925B-37534EC9D986}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF6A4A2-0CBF-4822-96A2-71FB9E4B88BD}">
-  <dimension ref="A1:A38"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView zoomScale="64" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.88671875" customWidth="1"/>
+    <col min="2" max="2" width="65.77734375" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="357.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="B15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="B24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B37" t="s">
+        <v>274</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{6CE12189-2951-4D1F-9494-A14FC0134319}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{3A049439-1781-4EFD-B753-63B6F865E99D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>